--- a/Dataset1/Detection_result/results_2vs1.xlsx
+++ b/Dataset1/Detection_result/results_2vs1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\SmartContract\Github\VulHunter\Dataset1\Detection_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5405D586-FA6B-44F1-B457-11DFBE4F6B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84361819-D0A1-4B12-B951-4A28C54F4F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="71">
   <si>
     <t>Severity</t>
   </si>
@@ -155,9 +155,6 @@
     <t>Overall</t>
   </si>
   <si>
-    <t>Failed</t>
-  </si>
-  <si>
     <t>0 (0%)</t>
   </si>
   <si>
@@ -197,7 +194,55 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>-</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>STD</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 (0%)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>15 (0.0480969634783724%)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>185 (0.5931958828999263%)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,055 (16.208676692211498%)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,846 (21.951454131529164%)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>18 (0.057716356174046884%)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>246 (0.7887902010453073%)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>All Failed</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>17 (0.044041450777202075%)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>229 (0.5932642487046632%)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,490 (21.99481865284974%)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -205,27 +250,15 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>8,490 (21.99481865284974%)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>26 (0.06735751295336787%)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>229 (0.5932642487046632%)</t>
+    <t>395 (1.02331606217617%)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>395 (1.0233160621761658%)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>STD</t>
+    <t>Test Failed</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1177,7 +1210,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1185,10 +1218,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB39"/>
+  <dimension ref="A1:BB40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BC29" sqref="BC29"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1221,7 +1254,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
@@ -1263,7 +1296,7 @@
       <c r="AK1" s="3"/>
       <c r="AL1" s="3"/>
       <c r="AM1" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AN1" s="3"/>
       <c r="AO1" s="3"/>
@@ -1273,7 +1306,7 @@
       <c r="AS1" s="3"/>
       <c r="AT1" s="3"/>
       <c r="AU1" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AV1" s="3"/>
       <c r="AW1" s="3"/>
@@ -1287,160 +1320,160 @@
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="O2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="S2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="W2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Z2" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="AA2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AD2" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="AE2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AH2" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="AI2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AL2" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="AM2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AN2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AP2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AR2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="AT2" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="AU2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AY2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BA2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AZ2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="BB2" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.2">
@@ -2959,7 +2992,7 @@
     <row r="12" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="1">
         <v>87.200890372843602</v>
@@ -5496,7 +5529,7 @@
     <row r="27" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" s="1">
         <v>93.103448275861993</v>
@@ -7590,10 +7623,10 @@
     <row r="39" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -7603,49 +7636,49 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="AF39" s="3"/>
       <c r="AG39" s="3"/>
       <c r="AH39" s="3"/>
       <c r="AI39" s="3" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="AJ39" s="3"/>
       <c r="AK39" s="3"/>
       <c r="AL39" s="3"/>
       <c r="AM39" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AN39" s="3"/>
       <c r="AO39" s="3"/>
@@ -7655,7 +7688,7 @@
       <c r="AS39" s="3"/>
       <c r="AT39" s="3"/>
       <c r="AU39" s="3" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="AV39" s="3"/>
       <c r="AW39" s="3"/>
@@ -7665,8 +7698,117 @@
       <c r="BA39" s="3"/>
       <c r="BB39" s="3"/>
     </row>
+    <row r="40" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A40" s="3"/>
+      <c r="B40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF40" s="3"/>
+      <c r="AG40" s="3"/>
+      <c r="AH40" s="3"/>
+      <c r="AI40" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ40" s="3"/>
+      <c r="AK40" s="3"/>
+      <c r="AL40" s="3"/>
+      <c r="AM40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN40" s="3"/>
+      <c r="AO40" s="3"/>
+      <c r="AP40" s="3"/>
+      <c r="AQ40" s="3"/>
+      <c r="AR40" s="3"/>
+      <c r="AS40" s="3"/>
+      <c r="AT40" s="3"/>
+      <c r="AU40" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV40" s="3"/>
+      <c r="AW40" s="3"/>
+      <c r="AX40" s="3"/>
+      <c r="AY40" s="3"/>
+      <c r="AZ40" s="3"/>
+      <c r="BA40" s="3"/>
+      <c r="BB40" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="38">
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="AM1:AT1"/>
+    <mergeCell ref="AU1:BB1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A11:A20"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="AU39:BB39"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AE39:AH39"/>
+    <mergeCell ref="AI39:AL39"/>
+    <mergeCell ref="AU40:BB40"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="O40:R40"/>
+    <mergeCell ref="S40:V40"/>
+    <mergeCell ref="W40:Z40"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="AA40:AD40"/>
+    <mergeCell ref="AE40:AH40"/>
+    <mergeCell ref="AI40:AL40"/>
+    <mergeCell ref="AM40:AT40"/>
     <mergeCell ref="K39:N39"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="S39:V39"/>
@@ -7674,27 +7816,6 @@
     <mergeCell ref="AA39:AD39"/>
     <mergeCell ref="C39:J39"/>
     <mergeCell ref="AM39:AT39"/>
-    <mergeCell ref="AU39:BB39"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A11:A20"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="AE39:AH39"/>
-    <mergeCell ref="AI39:AL39"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="AM1:AT1"/>
-    <mergeCell ref="AU1:BB1"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7703,10 +7824,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A172D96E-B448-44F2-B1F1-D6DD24B8E2A5}">
-  <dimension ref="A1:BB39"/>
+  <dimension ref="A1:BB40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BC33" sqref="BC33"/>
+    <sheetView topLeftCell="Y1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39:BB40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7729,7 +7850,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
@@ -7771,7 +7892,7 @@
       <c r="AK1" s="3"/>
       <c r="AL1" s="3"/>
       <c r="AM1" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AN1" s="3"/>
       <c r="AO1" s="3"/>
@@ -7781,7 +7902,7 @@
       <c r="AS1" s="3"/>
       <c r="AT1" s="3"/>
       <c r="AU1" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AV1" s="3"/>
       <c r="AW1" s="3"/>
@@ -7795,160 +7916,160 @@
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="O2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="S2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="W2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Z2" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="AA2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AD2" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="AE2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AH2" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="AI2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AL2" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="AM2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AN2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AP2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AR2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="AT2" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="AU2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AY2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BA2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AZ2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="BB2" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.2">
@@ -7983,16 +8104,16 @@
         <v>1.239832692569292</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="O3" s="1">
         <v>98.039215686274503</v>
@@ -8145,16 +8266,16 @@
         <v>2.3321666129570802</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="O4" s="1">
         <v>66.538952745849301</v>
@@ -8169,64 +8290,64 @@
         <v>0</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AM4" s="1">
         <v>78.416347381864597</v>
@@ -8307,16 +8428,16 @@
         <v>2.0343082356889872</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="O5" s="1">
         <v>97.413793103448199</v>
@@ -8331,28 +8452,28 @@
         <v>96</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AA5" s="1">
         <v>63.793103448275858</v>
@@ -8367,16 +8488,16 @@
         <v>30</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AI5" s="1">
         <v>72.41379310344827</v>
@@ -8469,16 +8590,16 @@
         <v>3.0769230769230789</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="O6" s="1">
         <v>94.871794871794805</v>
@@ -8493,28 +8614,28 @@
         <v>91.6666666666666</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AA6" s="1">
         <v>53.846153846153847</v>
@@ -8529,16 +8650,16 @@
         <v>24.999999999999989</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AI6" s="1">
         <v>64.102564102564102</v>
@@ -8631,16 +8752,16 @@
         <v>3.052005534331474</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="O7" s="1">
         <v>99.103139013452903</v>
@@ -8655,52 +8776,52 @@
         <v>98.6666666666666</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AI7" s="1">
         <v>65.807174887892373</v>
@@ -8793,28 +8914,28 @@
         <v>4.8176715230839733</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="S8" s="1">
         <v>94.66814159292035</v>
@@ -8841,40 +8962,40 @@
         <v>40.057122456265617</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AI8" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AJ8" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AK8" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AL8" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AM8" s="1">
         <v>77.853982300884894</v>
@@ -8955,16 +9076,16 @@
         <v>4.88527297247827</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="O9" s="1">
         <v>74.020319303338098</v>
@@ -8979,64 +9100,64 @@
         <v>36.637168141592902</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AF9" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AG9" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AH9" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AI9" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AJ9" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AK9" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AL9" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AM9" s="2">
         <v>87.808417997097237</v>
@@ -9125,16 +9246,16 @@
         <v>3.0625972354331652</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="O10" s="1">
         <f>AVERAGE(O3:O9)</f>
@@ -9365,28 +9486,28 @@
         <v>60.804645375362909</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AE11" s="1">
         <v>64.350215940321945</v>
@@ -9464,7 +9585,7 @@
     <row r="12" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="1">
         <v>87.200890372843602</v>
@@ -9515,40 +9636,40 @@
         <v>87.977632805219002</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AE12" s="1">
         <v>70.111111111111114</v>
@@ -9563,16 +9684,16 @@
         <v>18.975903614457831</v>
       </c>
       <c r="AI12" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AJ12" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AK12" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AL12" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AM12" s="1">
         <v>79.1666666666666</v>
@@ -9653,40 +9774,40 @@
         <v>1.514125140959288</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="W13" s="1">
         <v>76.738764408755344</v>
@@ -9713,16 +9834,16 @@
         <v>6.4627813040969402</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AF13" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AG13" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AH13" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AI13" s="1">
         <v>25.87747701074991</v>
@@ -9851,16 +9972,16 @@
         <v>80.597014925373131</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AA14" s="1">
         <v>60.683760683760681</v>
@@ -10001,28 +10122,28 @@
         <v>32.4324324324324</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AA15" s="1">
         <v>56.521739130434781</v>
@@ -10139,16 +10260,16 @@
         <v>2.825384556270071</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="O16" s="1">
         <v>97.952218430034094</v>
@@ -10175,16 +10296,16 @@
         <v>62.244897959183668</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AA16" s="1">
         <v>53.242320819112628</v>
@@ -10301,16 +10422,16 @@
         <v>1.1110954551569669</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="O17" s="1">
         <v>65.414507772020698</v>
@@ -10325,64 +10446,64 @@
         <v>0.298730395817774</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AE17" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AF17" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AG17" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AH17" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AI17" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AJ17" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AK17" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AL17" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AM17" s="1">
         <v>86.139896373056899</v>
@@ -10463,16 +10584,16 @@
         <v>3.0303030303030321</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="O18" s="1">
         <v>100</v>
@@ -10487,64 +10608,64 @@
         <v>100</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AD18" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AE18" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AF18" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AH18" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AI18" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AJ18" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AK18" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AL18" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AM18" s="1">
         <v>60</v>
@@ -10625,16 +10746,16 @@
         <v>1.1326632032651991</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="O19" s="1">
         <v>99.968193384223895</v>
@@ -10649,64 +10770,64 @@
         <v>99.952312827849298</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AD19" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AE19" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AF19" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AG19" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AH19" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AI19" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AJ19" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AK19" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AL19" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AM19" s="1">
         <v>90.807888040712399</v>
@@ -11027,16 +11148,16 @@
         <v>74.520547945205394</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="W21" s="1">
         <v>59.661835748792271</v>
@@ -11051,28 +11172,28 @@
         <v>28.936170212765951</v>
       </c>
       <c r="AA21" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AC21" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AD21" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AE21" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AF21" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AG21" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AH21" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AI21" s="2">
         <v>65.94202898550725</v>
@@ -11177,52 +11298,52 @@
         <v>99.88179669030734</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AA22" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AC22" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AD22" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AE22" s="1">
         <v>67.357001972386584</v>
@@ -11237,16 +11358,16 @@
         <v>5.0487664945496267</v>
       </c>
       <c r="AI22" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AJ22" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AK22" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AL22" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AM22" s="1">
         <v>81.321499013806701</v>
@@ -11327,52 +11448,52 @@
         <v>3.3621891137235091</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AA23" s="1">
         <v>51.556567957479118</v>
@@ -11513,40 +11634,40 @@
         <v>91.214953271027994</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="X24" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AA24" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AC24" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AD24" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AE24" s="1">
         <v>69.592656339644293</v>
@@ -11691,16 +11812,16 @@
         <v>85.18187285783597</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="W25" s="1">
         <f>AVERAGE(W21:W24)</f>
@@ -11887,64 +12008,64 @@
         <v>69.7310819262038</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AA26" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AC26" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AD26" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AE26" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AF26" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AG26" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AH26" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AI26" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AJ26" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AK26" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AL26" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AM26" s="2">
         <v>84.251842358218525</v>
@@ -11998,7 +12119,7 @@
     <row r="27" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" s="1">
         <v>93.103448275861993</v>
@@ -12049,64 +12170,64 @@
         <v>100</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AA27" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AC27" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AD27" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AE27" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AF27" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AG27" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AH27" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AI27" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AJ27" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AK27" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AL27" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AM27" s="1">
         <v>72.413793103448199</v>
@@ -12199,76 +12320,76 @@
         <v>100</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="W28" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AA28" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AC28" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AD28" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AE28" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AF28" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AG28" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AH28" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AI28" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AJ28" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AK28" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AL28" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AM28" s="1">
         <v>83.3333333333333</v>
@@ -12361,76 +12482,76 @@
         <v>100</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="X29" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AA29" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AC29" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AD29" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AE29" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AF29" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AG29" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AH29" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AI29" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AJ29" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AK29" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AL29" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AM29" s="1">
         <v>87.138508371385001</v>
@@ -12551,64 +12672,64 @@
         <v>86.83763447195544</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Z30" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AA30" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AB30" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AC30" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AD30" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AE30" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AF30" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AG30" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AH30" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AI30" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AJ30" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AK30" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AL30" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AM30" s="1">
         <f>AVERAGE(AM26:AM29)</f>
@@ -12719,76 +12840,76 @@
         <v>100</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="X31" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AA31" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AC31" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AD31" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AE31" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AF31" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AG31" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AH31" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AI31" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AJ31" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AK31" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AL31" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AM31" s="1">
         <v>77.716390423572705</v>
@@ -12881,76 +13002,76 @@
         <v>100</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="X32" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Z32" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AA32" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AC32" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AD32" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AE32" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AF32" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AG32" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AH32" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AI32" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AJ32" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AK32" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AL32" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AM32" s="1">
         <v>87.5</v>
@@ -13031,16 +13152,16 @@
         <v>5.2628953940622916</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="O33" s="1">
         <v>100</v>
@@ -13055,64 +13176,64 @@
         <v>100</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="X33" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Z33" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AA33" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AB33" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AC33" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AD33" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AE33" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AF33" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AG33" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AH33" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AI33" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AJ33" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AK33" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AL33" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AM33" s="1">
         <v>77.564102564102498</v>
@@ -13193,16 +13314,16 @@
         <v>2.6883359278333989</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="O34" s="1">
         <v>66.6666666666666</v>
@@ -13217,64 +13338,64 @@
         <v>0</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="X34" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AA34" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AB34" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AC34" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AD34" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AE34" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AF34" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AG34" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AH34" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AI34" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AJ34" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AK34" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AL34" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AM34" s="1">
         <v>83.403068340306802</v>
@@ -13355,16 +13476,16 @@
         <v>2.0357511082822182</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="O35" s="1">
         <v>95.075187969924798</v>
@@ -13379,64 +13500,64 @@
         <v>92.036474164133693</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="X35" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Z35" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AA35" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AB35" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AC35" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AD35" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AE35" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AF35" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AG35" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AH35" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AI35" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AJ35" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AK35" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AL35" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AM35" s="1">
         <v>81.466165413533801</v>
@@ -13541,64 +13662,64 @@
         <v>98.909090909090907</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="X36" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Z36" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AA36" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AB36" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AC36" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AD36" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AE36" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AF36" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AG36" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AH36" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AI36" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AJ36" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AK36" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AL36" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AM36" s="1">
         <v>77.450980392156794</v>
@@ -13719,64 +13840,64 @@
         <v>72.848923464965495</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="X37" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Z37" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AA37" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AB37" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AC37" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AD37" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AE37" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AF37" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AG37" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AH37" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AI37" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AJ37" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AK37" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AL37" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AM37" s="1">
         <f>AVERAGE(AM31:AM36)</f>
@@ -14062,10 +14183,10 @@
     <row r="39" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -14075,49 +14196,49 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="AF39" s="3"/>
       <c r="AG39" s="3"/>
       <c r="AH39" s="3"/>
       <c r="AI39" s="3" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="AJ39" s="3"/>
       <c r="AK39" s="3"/>
       <c r="AL39" s="3"/>
       <c r="AM39" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AN39" s="3"/>
       <c r="AO39" s="3"/>
@@ -14127,7 +14248,7 @@
       <c r="AS39" s="3"/>
       <c r="AT39" s="3"/>
       <c r="AU39" s="3" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="AV39" s="3"/>
       <c r="AW39" s="3"/>
@@ -14137,36 +14258,124 @@
       <c r="BA39" s="3"/>
       <c r="BB39" s="3"/>
     </row>
+    <row r="40" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A40" s="3"/>
+      <c r="B40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF40" s="3"/>
+      <c r="AG40" s="3"/>
+      <c r="AH40" s="3"/>
+      <c r="AI40" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ40" s="3"/>
+      <c r="AK40" s="3"/>
+      <c r="AL40" s="3"/>
+      <c r="AM40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN40" s="3"/>
+      <c r="AO40" s="3"/>
+      <c r="AP40" s="3"/>
+      <c r="AQ40" s="3"/>
+      <c r="AR40" s="3"/>
+      <c r="AS40" s="3"/>
+      <c r="AT40" s="3"/>
+      <c r="AU40" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV40" s="3"/>
+      <c r="AW40" s="3"/>
+      <c r="AX40" s="3"/>
+      <c r="AY40" s="3"/>
+      <c r="AZ40" s="3"/>
+      <c r="BA40" s="3"/>
+      <c r="BB40" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="38">
+    <mergeCell ref="AA40:AD40"/>
+    <mergeCell ref="AE40:AH40"/>
+    <mergeCell ref="AI40:AL40"/>
+    <mergeCell ref="AM40:AT40"/>
+    <mergeCell ref="AU40:BB40"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="O40:R40"/>
+    <mergeCell ref="S40:V40"/>
+    <mergeCell ref="W40:Z40"/>
+    <mergeCell ref="AU39:BB39"/>
+    <mergeCell ref="O39:R39"/>
+    <mergeCell ref="S39:V39"/>
+    <mergeCell ref="W39:Z39"/>
+    <mergeCell ref="AA39:AD39"/>
+    <mergeCell ref="AM39:AT39"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A11:A20"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="AM1:AT1"/>
+    <mergeCell ref="AU1:BB1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AL1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="S1:V1"/>
     <mergeCell ref="C1:J1"/>
-    <mergeCell ref="AM1:AT1"/>
-    <mergeCell ref="AU1:BB1"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A11:A20"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="A38:A40"/>
     <mergeCell ref="AE39:AH39"/>
     <mergeCell ref="AI39:AL39"/>
     <mergeCell ref="C39:J39"/>
     <mergeCell ref="K39:N39"/>
-    <mergeCell ref="O39:R39"/>
-    <mergeCell ref="S39:V39"/>
-    <mergeCell ref="W39:Z39"/>
-    <mergeCell ref="AA39:AD39"/>
-    <mergeCell ref="AM39:AT39"/>
-    <mergeCell ref="AU39:BB39"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
